--- a/data/case1/9/Plm1_14.xlsx
+++ b/data/case1/9/Plm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0486524634030161</v>
+        <v>-0.048758552317011095</v>
       </c>
       <c r="B1" s="0">
-        <v>0.048488714746056871</v>
+        <v>0.048475628702846052</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.039654119909936725</v>
+        <v>0.04378355625694752</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.040082945554614113</v>
+        <v>-0.044483208807333696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14301041498339018</v>
+        <v>0.14741164639237425</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.14356219510087342</v>
+        <v>-0.14811064177163402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14042378049071758</v>
+        <v>-0.13587566805062323</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13989178493178756</v>
+        <v>0.13526426707265671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13389178564047999</v>
+        <v>-0.12926426774933919</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13284305563684207</v>
+        <v>0.12805232404317746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10934801554952811</v>
+        <v>-0.02722590228885613</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10917201424706935</v>
+        <v>0.02721344554009697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.089172015096677271</v>
+        <v>-0.034444881079837231</v>
       </c>
       <c r="B7" s="0">
-        <v>0.088728737016085191</v>
+        <v>0.034379567614827522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068728737875131785</v>
+        <v>-0.014379568433783518</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068345180767420466</v>
+        <v>0.014363368977620361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062345181518539405</v>
+        <v>-0.0083633696793903312</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062018617327940895</v>
+        <v>0.008357607113737231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056018618090014627</v>
+        <v>-0.0023576078170535197</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055972562146749283</v>
+        <v>0.0023590319099682233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051472562896311302</v>
+        <v>0.0021409673994021716</v>
       </c>
       <c r="B11" s="0">
-        <v>0.05139516425031232</v>
+        <v>-0.0021402084691608536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045395165015379657</v>
+        <v>-0.069955880620222732</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045150477996943383</v>
+        <v>0.069380562235142218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915047877376665</v>
+        <v>-0.063380562956345088</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084086356236725</v>
+        <v>0.063205210815896251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084087187931871</v>
+        <v>-0.051205211594115951</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052342074957103</v>
+        <v>0.051084393703285436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052342857808881</v>
+        <v>-0.045084394435043862</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027393948375384</v>
+        <v>0.044962304944857756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027394733643451</v>
+        <v>-0.038962305681870202</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004162804094889</v>
+        <v>0.038800221320141492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041635925262042</v>
+        <v>-0.032800222066000195</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999991851641425</v>
+        <v>0.032733907794731287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.078142835400509369</v>
+        <v>-0.082259185672374002</v>
       </c>
       <c r="B18" s="0">
-        <v>0.078058103602529627</v>
+        <v>0.082142453597722209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.069058104340144144</v>
+        <v>-0.073142454303694482</v>
       </c>
       <c r="B19" s="0">
-        <v>0.068398200349969684</v>
+        <v>0.072210797725117182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013419157600907</v>
+        <v>-0.06321079844969546</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004271778709224</v>
+        <v>0.06300399016671232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042725344323671</v>
+        <v>-0.054003990895116427</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999992436586851</v>
+        <v>0.053714722284969429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093927470162688209</v>
+        <v>-0.093928438286654981</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093621424595278668</v>
+        <v>0.093622077988404939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084621425335032363</v>
+        <v>-0.084622078696122927</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124089907396282</v>
+        <v>0.084124201636380569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04212409094022096</v>
+        <v>-0.042124202638138541</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998962110041</v>
+        <v>0.041999998992919174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.017495040813649609</v>
+        <v>-0.094826422449084902</v>
       </c>
       <c r="B25" s="0">
-        <v>0.017495362306974016</v>
+        <v>0.094592131748349573</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.027736589230972442</v>
+        <v>-0.088592132445818095</v>
       </c>
       <c r="B26" s="0">
-        <v>0.02770821641722776</v>
+        <v>0.088288779152815522</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.023916086683500204</v>
+        <v>-0.082288779853921135</v>
       </c>
       <c r="B27" s="0">
-        <v>0.023778312728351736</v>
+        <v>0.081245512675295117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.017778313459895223</v>
+        <v>-0.075245513391860364</v>
       </c>
       <c r="B28" s="0">
-        <v>0.017694693676610918</v>
+        <v>0.074522829880336872</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0056946944616438344</v>
+        <v>-0.062522830658368278</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0056678560945186973</v>
+        <v>0.062165253317695957</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.014332143051549728</v>
+        <v>-0.042165254168862631</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.014405517075589458</v>
+        <v>0.042018474904665482</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.029405516266631793</v>
+        <v>-0.027018475720170798</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.02945011157002142</v>
+        <v>0.02700054867840862</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.006000622234791031</v>
+        <v>-0.0060005495464388048</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999269358014</v>
+        <v>0.0059999992600223706</v>
       </c>
     </row>
   </sheetData>
